--- a/mutation-analysis/mutants-rasa/results_pizza.xlsx
+++ b/mutation-analysis/mutants-rasa/results_pizza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\satori\user-simulator-evaluation\mutation-analysis\mutants-rasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CA0860-BAA2-4CBA-B98A-BC09B2C149F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE87FF-C662-44E8-907D-7E5C5492DFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30994DF1-0BCB-424C-A5E9-BD42686768CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
   <si>
     <t>mutant_DA_001</t>
   </si>
@@ -345,6 +345,21 @@
   </si>
   <si>
     <t>se borra la respuesta de toppings, así que esos 7 tests dan timeout</t>
+  </si>
+  <si>
+    <t>#tests = 52</t>
+  </si>
+  <si>
+    <t>KILLED</t>
+  </si>
+  <si>
+    <t>Hace que salte un intent distinto (expected toppings but found order drinks)</t>
+  </si>
+  <si>
+    <t>Hace que salte un intent distinto</t>
+  </si>
+  <si>
+    <t>Mut Score</t>
   </si>
 </sst>
 </file>
@@ -388,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -411,15 +426,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -756,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0D3457-99EE-4908-9FC8-7C7A14894CA8}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,9 +796,10 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>93</v>
       </c>
@@ -788,8 +818,11 @@
       <c r="F1" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +838,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -815,7 +848,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -824,8 +857,15 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(E2:E94, "Killed")/(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -839,7 +879,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -849,7 +889,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -859,7 +899,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -869,7 +909,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -879,7 +919,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -889,7 +929,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -899,7 +939,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -913,7 +953,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -923,7 +963,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -933,7 +973,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -943,7 +983,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1051,10 +1091,14 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,50 +1115,74 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">

--- a/mutation-analysis/mutants-rasa/results_pizza.xlsx
+++ b/mutation-analysis/mutants-rasa/results_pizza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\satori\user-simulator-evaluation\mutation-analysis\mutants-rasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE87FF-C662-44E8-907D-7E5C5492DFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0CAFE1-B117-45A6-93EE-9276F1D67F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30994DF1-0BCB-424C-A5E9-BD42686768CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
   <si>
     <t>mutant_DA_001</t>
   </si>
@@ -338,18 +338,12 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Killed</t>
-  </si>
-  <si>
     <t>survived</t>
   </si>
   <si>
     <t>se borra la respuesta de toppings, así que esos 7 tests dan timeout</t>
   </si>
   <si>
-    <t>#tests = 52</t>
-  </si>
-  <si>
     <t>KILLED</t>
   </si>
   <si>
@@ -359,7 +353,13 @@
     <t>Hace que salte un intent distinto</t>
   </si>
   <si>
-    <t>Mut Score</t>
+    <t>Mut Score Botium</t>
+  </si>
+  <si>
+    <t>Botium # tests = 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutantes = </t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -451,6 +451,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +789,7 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,6 +798,7 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="65.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -818,9 +820,7 @@
       <c r="F1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -832,10 +832,17 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="5">
+        <f>(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,6 +854,9 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -858,11 +868,11 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I4">
         <f>COUNTIF(E2:E94, "Killed")/(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
-        <v>0.3</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -875,7 +885,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -949,7 +959,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1053,7 +1063,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1097,7 +1107,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1121,10 +1131,10 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,10 +1147,10 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,7 +1163,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1167,7 +1177,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -1181,7 +1191,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -1189,10 +1199,14 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,10 +1233,14 @@
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,10 +1267,14 @@
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,10 +1391,14 @@
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,11 +1765,15 @@
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
+      <c r="E88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">

--- a/mutation-analysis/mutants-rasa/results_pizza.xlsx
+++ b/mutation-analysis/mutants-rasa/results_pizza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\satori\user-simulator-evaluation\mutation-analysis\mutants-rasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0CAFE1-B117-45A6-93EE-9276F1D67F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FBB74-7143-49FB-9293-36DA3C0D906B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30994DF1-0BCB-424C-A5E9-BD42686768CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
   <si>
     <t>mutant_DA_001</t>
   </si>
@@ -360,6 +360,63 @@
   </si>
   <si>
     <t xml:space="preserve">mutantes = </t>
+  </si>
+  <si>
+    <t>Survived</t>
+  </si>
+  <si>
+    <t>Mut Score SENSEI</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>empty response</t>
+  </si>
+  <si>
+    <t>unfinished goal</t>
+  </si>
+  <si>
+    <t>one goal not completed</t>
+  </si>
+  <si>
+    <t>instead of fallback, the chatbot responds by offering a pizza</t>
+  </si>
+  <si>
+    <t>Killing rule</t>
+  </si>
+  <si>
+    <t>shows_fallback</t>
+  </si>
+  <si>
+    <t>contains_requested_topings</t>
+  </si>
+  <si>
+    <t>No coge los toppings</t>
+  </si>
+  <si>
+    <t>Se borra simplemente el tipo de pizza de la pregunta de los toppings</t>
+  </si>
+  <si>
+    <t>Se borra una confirmación parcial, pero no la final</t>
+  </si>
+  <si>
+    <t>unfinished goals</t>
+  </si>
+  <si>
+    <t>No entiende los toppings</t>
+  </si>
+  <si>
+    <t>No entiende que pide un Sprite</t>
+  </si>
+  <si>
+    <t>Le pide toppings en vez de preguntarle por la bebida</t>
+  </si>
+  <si>
+    <t>EQUIVALENT?</t>
+  </si>
+  <si>
+    <t>El sinónimo no se usa</t>
   </si>
 </sst>
 </file>
@@ -383,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +456,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -451,7 +520,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,22 +859,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0D3457-99EE-4908-9FC8-7C7A14894CA8}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="65.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="4" max="7" width="14" customWidth="1"/>
+    <col min="9" max="9" width="65.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>93</v>
       </c>
@@ -815,37 +889,55 @@
         <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="5">
-        <f>(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" s="5">
+        <f>(COUNTIF(H2:H94, "Killed")+COUNTIF(H2:H94, "survived"))-SUM(E2:E94)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -854,11 +946,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="H3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -867,29 +962,39 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="H4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" t="s">
         <v>105</v>
       </c>
-      <c r="I4">
-        <f>COUNTIF(E2:E94, "Killed")/(COUNTIF(E2:E94, "Killed")+COUNTIF(E2:E94, "survived"))</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f>COUNTIF(H2:H94, "Killed")/L2</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -898,8 +1003,11 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -908,8 +1016,18 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7">
+        <f>(COUNTIF(C2:C94,"KILLED")+COUNTIF(D2:D94,"KILLED"))/L2</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -918,8 +1036,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -928,8 +1049,11 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -938,8 +1062,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -948,22 +1075,32 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -972,8 +1109,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -982,8 +1122,11 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -992,8 +1135,11 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1002,8 +1148,11 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1012,8 +1161,11 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1022,8 +1174,11 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1032,8 +1187,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1042,8 +1200,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1052,32 +1213,47 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1086,8 +1262,11 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1096,22 +1275,36 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1120,96 +1313,159 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1218,8 +1474,11 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1228,22 +1487,32 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1252,8 +1521,11 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1262,22 +1534,32 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1286,8 +1568,11 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1296,8 +1581,11 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1306,8 +1594,11 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1316,8 +1607,11 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1326,8 +1620,11 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1336,8 +1633,11 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1346,8 +1646,11 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1356,8 +1659,11 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1366,18 +1672,32 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1386,22 +1706,24 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1410,8 +1732,11 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -1420,8 +1745,11 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -1430,8 +1758,11 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1440,8 +1771,11 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -1450,8 +1784,11 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -1460,8 +1797,11 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -1470,8 +1810,11 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -1480,8 +1823,11 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -1490,8 +1836,11 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -1500,8 +1849,11 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -1510,8 +1862,11 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -1520,8 +1875,11 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -1530,8 +1888,11 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -1540,8 +1901,11 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -1550,8 +1914,11 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -1560,8 +1927,11 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -1570,8 +1940,11 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -1580,8 +1953,11 @@
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -1590,8 +1966,11 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -1600,8 +1979,11 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -1610,8 +1992,11 @@
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -1620,8 +2005,11 @@
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -1630,8 +2018,11 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -1640,8 +2031,11 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -1650,8 +2044,11 @@
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -1660,8 +2057,11 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -1670,8 +2070,11 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -1680,8 +2083,11 @@
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -1690,8 +2096,11 @@
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -1700,8 +2109,11 @@
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -1710,8 +2122,11 @@
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -1720,8 +2135,11 @@
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -1730,8 +2148,11 @@
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -1740,8 +2161,11 @@
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -1750,8 +2174,11 @@
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -1760,22 +2187,31 @@
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -1784,8 +2220,11 @@
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -1794,8 +2233,11 @@
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
@@ -1804,8 +2246,11 @@
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -1814,18 +2259,24 @@
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -1834,6 +2285,9 @@
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mutation-analysis/mutants-rasa/results_pizza.xlsx
+++ b/mutation-analysis/mutants-rasa/results_pizza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\satori\user-simulator-evaluation\mutation-analysis\mutants-rasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FBB74-7143-49FB-9293-36DA3C0D906B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524DD549-D358-466D-A189-57CCB3043D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30994DF1-0BCB-424C-A5E9-BD42686768CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
   <si>
     <t>mutant_DA_001</t>
   </si>
@@ -347,12 +347,6 @@
     <t>KILLED</t>
   </si>
   <si>
-    <t>Hace que salte un intent distinto (expected toppings but found order drinks)</t>
-  </si>
-  <si>
-    <t>Hace que salte un intent distinto</t>
-  </si>
-  <si>
     <t>Mut Score Botium</t>
   </si>
   <si>
@@ -395,28 +389,31 @@
     <t>No coge los toppings</t>
   </si>
   <si>
-    <t>Se borra simplemente el tipo de pizza de la pregunta de los toppings</t>
-  </si>
-  <si>
-    <t>Se borra una confirmación parcial, pero no la final</t>
-  </si>
-  <si>
-    <t>unfinished goals</t>
-  </si>
-  <si>
-    <t>No entiende los toppings</t>
-  </si>
-  <si>
-    <t>No entiende que pide un Sprite</t>
-  </si>
-  <si>
-    <t>Le pide toppings en vez de preguntarle por la bebida</t>
-  </si>
-  <si>
     <t>EQUIVALENT?</t>
   </si>
   <si>
-    <t>El sinónimo no se usa</t>
+    <t>It does not understand the toppings</t>
+  </si>
+  <si>
+    <t>It does not understand that a Sprite is required</t>
+  </si>
+  <si>
+    <t>Asks for toppings instead of asking for drink</t>
+  </si>
+  <si>
+    <t>A different intent is activated (expected toppings but found order drinks)</t>
+  </si>
+  <si>
+    <t>A different intent is activated</t>
+  </si>
+  <si>
+    <t>EQUIVALENT: Deletes the pizza type from the question about toppings.</t>
+  </si>
+  <si>
+    <t>EQUIVALENT: A partial confirmation is deleted, but not the final one</t>
+  </si>
+  <si>
+    <t>EQUIVALENT: The synonym is not used</t>
   </si>
 </sst>
 </file>
@@ -510,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -524,7 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,7 +858,7 @@
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,13 +885,13 @@
         <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>97</v>
@@ -913,7 +909,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>102</v>
@@ -921,7 +917,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>102</v>
@@ -930,7 +926,7 @@
         <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L2" s="5">
         <f>(COUNTIF(H2:H94, "Killed")+COUNTIF(H2:H94, "survived"))-SUM(E2:E94)</f>
@@ -950,7 +946,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -966,7 +962,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L4">
         <f>COUNTIF(H2:H94, "Killed")/L2</f>
@@ -987,7 +983,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>100</v>
@@ -1020,7 +1016,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L7">
         <f>(COUNTIF(C2:C94,"KILLED")+COUNTIF(D2:D94,"KILLED"))/L2</f>
@@ -1087,10 +1083,10 @@
         <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1225,7 +1221,7 @@
         <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>102</v>
@@ -1233,7 +1229,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>100</v>
@@ -1246,9 +1242,9 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1287,17 +1283,17 @@
         <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>100</v>
@@ -1325,23 +1321,23 @@
         <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1352,10 +1348,10 @@
         <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1364,7 +1360,7 @@
         <v>102</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1375,10 +1371,10 @@
         <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1389,7 +1385,7 @@
         <v>100</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1400,10 +1396,10 @@
         <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1414,7 +1410,7 @@
         <v>100</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1425,21 +1421,19 @@
         <v>99</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,7 +1444,7 @@
         <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
@@ -1462,7 +1456,7 @@
         <v>100</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1509,7 +1503,7 @@
         <v>102</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1556,7 +1550,7 @@
         <v>102</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1689,13 +1683,13 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I49" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -2204,8 +2198,9 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G88" s="5"/>
       <c r="H88" s="1" t="s">
         <v>100</v>
       </c>
